--- a/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B94E833B-600B-422A-879C-4B7C9DE20520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FE3CB7-491C-4945-BBA4-B2CF3DC49888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D8A95C5B-4BBE-4CDD-8376-FC21272EF9E1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{705172ED-671D-48DC-BB8E-7EC4BF61A5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,12 +67,105 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>97,57%</t>
   </si>
   <si>
@@ -88,9 +181,6 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
@@ -100,9 +190,6 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2,43%</t>
   </si>
   <si>
@@ -115,9 +202,6 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
@@ -130,52 +214,55 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -229,93 +316,6 @@
     <t>5,96%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
     <t>96,93%</t>
   </si>
   <si>
@@ -373,6 +373,54 @@
     <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>97,64%</t>
   </si>
   <si>
@@ -415,34 +463,34 @@
     <t>4,46%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>98,57%</t>
@@ -487,54 +535,6 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>98,18%</t>
   </si>
   <si>
@@ -580,6 +580,66 @@
     <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
   </si>
   <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
     <t>94,44%</t>
   </si>
   <si>
@@ -604,40 +664,40 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -692,66 +752,6 @@
   </si>
   <si>
     <t>6,24%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACDC7B1-73E3-45B9-B6B7-AD019FCE6CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA320C-A35E-4913-8916-0930929653BD}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>108913</v>
+        <v>13729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1324,10 +1324,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>109481</v>
+        <v>16630</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1336,73 +1336,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>39</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30359</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>339</v>
-      </c>
-      <c r="N4" s="7">
-        <v>218394</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2718</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>580</v>
+        <v>929</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>929</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3298</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,54 +1411,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1470,13 +1470,13 @@
         <v>67196</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -1485,13 +1485,13 @@
         <v>56032</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -1500,19 +1500,19 @@
         <v>123229</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1521,13 +1521,13 @@
         <v>1263</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1536,13 +1536,13 @@
         <v>2081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1551,13 +1551,13 @@
         <v>3344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1572,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1587,13 +1587,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1602,117 +1602,117 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>84708</v>
+        <v>108913</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>173</v>
+      </c>
+      <c r="I10" s="7">
+        <v>109481</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>339</v>
+      </c>
+      <c r="N10" s="7">
+        <v>218394</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" s="7">
-        <v>123</v>
-      </c>
-      <c r="I10" s="7">
-        <v>95318</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>246</v>
-      </c>
-      <c r="N10" s="7">
-        <v>180027</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>5335</v>
+        <v>2718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>671</v>
+        <v>580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>6005</v>
+        <v>3298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,150 +1721,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>13729</v>
+        <v>76095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>68576</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>233</v>
+      </c>
+      <c r="N13" s="7">
+        <v>144671</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16630</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="7">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30359</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>929</v>
+        <v>632</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2406</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>929</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>74</v>
@@ -1876,49 +1876,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>76095</v>
+        <v>84708</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>76</v>
@@ -1944,10 +1944,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>68576</v>
+        <v>95318</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>79</v>
@@ -1956,13 +1956,13 @@
         <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N16" s="7">
-        <v>144671</v>
+        <v>180027</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>81</v>
@@ -1977,13 +1977,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>1774</v>
+        <v>5335</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>84</v>
@@ -1998,22 +1998,22 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>2406</v>
+        <v>6005</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>89</v>
@@ -2031,49 +2031,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,7 +2132,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>17</v>
@@ -2192,13 +2192,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2207,13 +2207,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2222,13 +2222,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A073242-D0A1-42E0-8DA9-040DA5CEFC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A584EFE-0066-4CC6-A515-C9A5D3222D6A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,100 +2367,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>109441</v>
+        <v>12252</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12890</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25143</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="7">
-        <v>163</v>
-      </c>
-      <c r="I4" s="7">
-        <v>108123</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>324</v>
-      </c>
-      <c r="N4" s="7">
-        <v>217564</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2648</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>5251</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,54 +2469,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>112089</v>
+        <v>12252</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>110726</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7">
-        <v>222815</v>
+        <v>25143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2528,13 +2528,13 @@
         <v>59490</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -2543,13 +2543,13 @@
         <v>59696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>167</v>
@@ -2558,19 +2558,19 @@
         <v>119186</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2579,13 +2579,13 @@
         <v>1906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2594,13 +2594,13 @@
         <v>1331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2609,13 +2609,13 @@
         <v>3237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2630,13 @@
         <v>61396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2645,13 +2645,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>171</v>
@@ -2660,117 +2660,117 @@
         <v>122423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>161</v>
+      </c>
+      <c r="D10" s="7">
+        <v>109441</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="7">
-        <v>94235</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>88980</v>
+        <v>108123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="N10" s="7">
-        <v>183215</v>
+        <v>217564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1369</v>
+        <v>2648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>1714</v>
+        <v>2603</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>3083</v>
+        <v>5251</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,123 +2779,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D12" s="7">
-        <v>95604</v>
+        <v>112089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="I12" s="7">
-        <v>90694</v>
+        <v>110726</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="N12" s="7">
-        <v>186298</v>
+        <v>222815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>12252</v>
+        <v>78492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
-        <v>12890</v>
+        <v>71116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="N13" s="7">
-        <v>25143</v>
+        <v>149608</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2904,28 +2904,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,49 +2934,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>12252</v>
+        <v>79146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>71116</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="N15" s="7">
-        <v>25143</v>
+        <v>150262</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,97 +2987,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>78492</v>
+        <v>94235</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>115</v>
+      </c>
+      <c r="I16" s="7">
+        <v>88980</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>243</v>
+      </c>
+      <c r="N16" s="7">
+        <v>183215</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
-        <v>110</v>
-      </c>
-      <c r="I16" s="7">
-        <v>71116</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="7">
-        <v>231</v>
-      </c>
-      <c r="N16" s="7">
-        <v>149608</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>654</v>
+        <v>1369</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1714</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3083</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>654</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>164</v>
@@ -3089,49 +3089,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D18" s="7">
-        <v>79146</v>
+        <v>95604</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7">
-        <v>71116</v>
+        <v>90694</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="N18" s="7">
-        <v>150262</v>
+        <v>186298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>165</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>166</v>
@@ -3178,7 +3178,7 @@
         <v>694716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>170</v>
@@ -3190,7 +3190,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3205,7 +3205,7 @@
         <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3229,7 +3229,7 @@
         <v>12224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>177</v>
@@ -3250,13 +3250,13 @@
         <v>360487</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>493</v>
@@ -3265,13 +3265,13 @@
         <v>346453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1010</v>
@@ -3280,13 +3280,13 @@
         <v>706940</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC26BF8-07D2-4FB2-9B4B-D544F87B1A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0623609E-86A9-4253-92C5-1C3255E3CBB7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,97 +3425,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>102568</v>
+        <v>15477</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12867</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="7">
-        <v>154</v>
-      </c>
-      <c r="I4" s="7">
-        <v>99229</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>201796</v>
+        <v>28344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2549</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1099</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3145</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>5694</v>
+        <v>1099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>187</v>
@@ -3527,54 +3527,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>105117</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>102374</v>
+        <v>13966</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>207490</v>
+        <v>29443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3586,13 +3586,13 @@
         <v>57196</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -3607,7 +3607,7 @@
         <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -3628,7 +3628,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>194</v>
@@ -3655,7 +3655,7 @@
         <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>196</v>
@@ -3688,13 +3688,13 @@
         <v>58044</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -3703,13 +3703,13 @@
         <v>51588</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -3718,117 +3718,117 @@
         <v>109631</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>99900</v>
+        <v>102568</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="7">
+        <v>154</v>
+      </c>
+      <c r="I10" s="7">
+        <v>99229</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="7">
+        <v>302</v>
+      </c>
+      <c r="N10" s="7">
+        <v>201796</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H10" s="7">
-        <v>136</v>
-      </c>
-      <c r="I10" s="7">
-        <v>103286</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="7">
-        <v>272</v>
-      </c>
-      <c r="N10" s="7">
-        <v>203187</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4635</v>
+        <v>2549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2448</v>
+        <v>3145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>7083</v>
+        <v>5694</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,153 +3837,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7">
-        <v>104535</v>
+        <v>105117</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I12" s="7">
-        <v>105734</v>
+        <v>102374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="N12" s="7">
-        <v>210270</v>
+        <v>207490</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>15477</v>
+        <v>72521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>12867</v>
+        <v>72864</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
       <c r="N13" s="7">
-        <v>28344</v>
+        <v>145385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1099</v>
+        <v>657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1099</v>
+        <v>1241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,49 +3992,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>73105</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>13966</v>
+        <v>73521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="N15" s="7">
-        <v>29443</v>
+        <v>146626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,97 +4045,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>72521</v>
+        <v>99900</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
+        <v>136</v>
+      </c>
+      <c r="I16" s="7">
+        <v>103286</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="7">
+        <v>272</v>
+      </c>
+      <c r="N16" s="7">
+        <v>203187</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>72864</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7">
-        <v>218</v>
-      </c>
-      <c r="N16" s="7">
-        <v>145385</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>584</v>
+        <v>4635</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2448</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>657</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7083</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1241</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>237</v>
@@ -4147,49 +4147,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7">
-        <v>73105</v>
+        <v>104535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>73521</v>
+        <v>105734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="N18" s="7">
-        <v>146626</v>
+        <v>210270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4224,7 @@
         <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>242</v>
@@ -4248,7 +4248,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -4278,7 +4278,7 @@
         <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -4308,13 +4308,13 @@
         <v>356278</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -4323,13 +4323,13 @@
         <v>347182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>997</v>
@@ -4338,13 +4338,13 @@
         <v>703460</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FE3CB7-491C-4945-BBA4-B2CF3DC49888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DDAF19-AD10-4C05-8329-809AC74E6AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{705172ED-671D-48DC-BB8E-7EC4BF61A5B5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7C90851-F159-442E-8BA4-FDA7BD998807}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -70,6 +70,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -85,42 +109,42 @@
     <t>94,71%</t>
   </si>
   <si>
-    <t>69,62%</t>
+    <t>74,18%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
     <t>98,16%</t>
   </si>
   <si>
@@ -130,676 +154,649 @@
     <t>96,42%</t>
   </si>
   <si>
-    <t>90,24%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>98,8%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -810,7 +807,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,39 +903,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -990,7 +987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1101,13 +1098,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1116,6 +1106,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1180,19 +1177,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEA320C-A35E-4913-8916-0930929653BD}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB31E4F-4D61-4052-AB73-A692A7C3FC47}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1309,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1324,34 +1341,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>16630</v>
+        <v>929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>30359</v>
+        <v>929</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,10 +1377,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1375,34 +1392,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>929</v>
+        <v>16630</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>929</v>
+        <v>30359</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,13 +1434,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1432,13 +1449,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1447,13 +1464,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,25 +1481,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>67196</v>
+        <v>1263</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>56032</v>
+        <v>2081</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1491,22 +1508,22 @@
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>123229</v>
+        <v>3344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,49 +1532,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7">
-        <v>1263</v>
+        <v>67196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>2081</v>
+        <v>56032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="N8" s="7">
-        <v>3344</v>
+        <v>123229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1589,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1587,13 +1604,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1602,66 +1619,66 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>108913</v>
+        <v>2718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>109481</v>
+        <v>580</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>218394</v>
+        <v>3298</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,49 +1687,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>2718</v>
+        <v>108913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>580</v>
+        <v>109481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>3298</v>
+        <v>218394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1744,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -1742,13 +1759,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -1757,66 +1774,66 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>76095</v>
+        <v>1774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>68576</v>
+        <v>632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>144671</v>
+        <v>2406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,49 +1842,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>1774</v>
+        <v>76095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>632</v>
+        <v>68576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="N14" s="7">
-        <v>2406</v>
+        <v>144671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1899,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -1897,13 +1914,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -1912,66 +1929,66 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>84708</v>
+        <v>5335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>95318</v>
+        <v>671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>180027</v>
+        <v>6005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,49 +1997,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>5335</v>
+        <v>84708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7">
-        <v>671</v>
+        <v>95318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="N17" s="7">
-        <v>6005</v>
+        <v>180027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2054,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -2052,13 +2069,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2067,13 +2084,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,49 +2101,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>528</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>350641</v>
+        <v>11090</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
-        <v>515</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>346037</v>
+        <v>4893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="M19" s="7">
-        <v>1043</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>696679</v>
+        <v>15982</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,49 +2152,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="D20" s="7">
-        <v>11090</v>
+        <v>350641</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>515</v>
+      </c>
+      <c r="I20" s="7">
+        <v>346037</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4893</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N20" s="7">
+        <v>696679</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>24</v>
-      </c>
-      <c r="N20" s="7">
-        <v>15982</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2209,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2207,13 +2224,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2222,13 +2239,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2249,8 +2271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A584EFE-0066-4CC6-A515-C9A5D3222D6A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFAF009-1C97-4D9D-AFA9-D58734552B1E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2266,7 +2288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2367,49 +2389,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12252</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>12890</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>25143</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,49 +2440,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12252</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12890</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>25143</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2497,13 @@
         <v>12252</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -2490,13 +2512,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -2505,13 +2527,13 @@
         <v>25143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2544,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>59490</v>
+        <v>1906</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1331</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3237</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>82</v>
-      </c>
-      <c r="I7" s="7">
-        <v>59696</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>167</v>
-      </c>
-      <c r="N7" s="7">
-        <v>119186</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,49 +2595,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>1906</v>
+        <v>59490</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>82</v>
+      </c>
+      <c r="I8" s="7">
+        <v>59696</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1331</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>167</v>
+      </c>
+      <c r="N8" s="7">
+        <v>119186</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3237</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2652,13 @@
         <v>61396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2645,13 +2667,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>171</v>
@@ -2660,66 +2682,66 @@
         <v>122423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>109441</v>
+        <v>2648</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2603</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="7">
-        <v>163</v>
-      </c>
-      <c r="I10" s="7">
-        <v>108123</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5251</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>324</v>
-      </c>
-      <c r="N10" s="7">
-        <v>217564</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,49 +2750,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7">
-        <v>2648</v>
+        <v>109441</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>163</v>
+      </c>
+      <c r="I11" s="7">
+        <v>108123</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2603</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="7">
+        <v>324</v>
+      </c>
+      <c r="N11" s="7">
+        <v>217564</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5251</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2807,13 @@
         <v>112089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>167</v>
@@ -2800,13 +2822,13 @@
         <v>110726</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>332</v>
@@ -2815,66 +2837,66 @@
         <v>222815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>78492</v>
+        <v>654</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>71116</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>654</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>231</v>
-      </c>
-      <c r="N13" s="7">
-        <v>149608</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,49 +2905,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7">
-        <v>654</v>
+        <v>78492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>71116</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>654</v>
+        <v>149608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2962,13 @@
         <v>79146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>110</v>
@@ -2955,13 +2977,13 @@
         <v>71116</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -2970,66 +2992,66 @@
         <v>150262</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>94235</v>
+        <v>1369</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1714</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3083</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7">
-        <v>88980</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>243</v>
-      </c>
-      <c r="N16" s="7">
-        <v>183215</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,49 +3060,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>1369</v>
+        <v>94235</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>115</v>
+      </c>
+      <c r="I17" s="7">
+        <v>88980</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>243</v>
+      </c>
+      <c r="N17" s="7">
+        <v>183215</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1714</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3083</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3117,13 @@
         <v>95604</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>117</v>
@@ -3110,13 +3132,13 @@
         <v>90694</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>247</v>
@@ -3125,13 +3147,13 @@
         <v>186298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +3164,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>508</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>353911</v>
+        <v>6576</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5648</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="7">
-        <v>485</v>
-      </c>
-      <c r="I19" s="7">
-        <v>340805</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="7">
+        <v>17</v>
+      </c>
+      <c r="N19" s="7">
+        <v>12224</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M19" s="7">
-        <v>993</v>
-      </c>
-      <c r="N19" s="7">
-        <v>694716</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,49 +3215,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="D20" s="7">
-        <v>6576</v>
+        <v>353911</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="7">
+        <v>485</v>
+      </c>
+      <c r="I20" s="7">
+        <v>340805</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5648</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>993</v>
+      </c>
+      <c r="N20" s="7">
+        <v>694716</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M20" s="7">
-        <v>17</v>
-      </c>
-      <c r="N20" s="7">
-        <v>12224</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3272,13 @@
         <v>360487</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>493</v>
@@ -3265,13 +3287,13 @@
         <v>346453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1010</v>
@@ -3280,13 +3302,18 @@
         <v>706940</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3307,8 +3334,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0623609E-86A9-4253-92C5-1C3255E3CBB7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338D619-B807-4783-89E3-143E56CF6B3B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3324,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,10 +3452,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15477</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3440,34 +3467,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>12867</v>
+        <v>1099</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1099</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>32</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28344</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,10 +3503,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>15477</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -3491,34 +3518,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>1099</v>
+        <v>12867</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>32</v>
+      </c>
+      <c r="N5" s="7">
+        <v>28344</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1099</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3560,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3548,13 +3575,13 @@
         <v>13966</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -3563,13 +3590,13 @@
         <v>29443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3607,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>57196</v>
+        <v>848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1493</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>74</v>
-      </c>
-      <c r="I7" s="7">
-        <v>50095</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2340</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>149</v>
-      </c>
-      <c r="N7" s="7">
-        <v>107291</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3658,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>848</v>
+        <v>57196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>74</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50095</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1493</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>149</v>
+      </c>
+      <c r="N8" s="7">
+        <v>107291</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2340</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3715,13 @@
         <v>58044</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -3703,13 +3730,13 @@
         <v>51588</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>152</v>
@@ -3718,66 +3745,66 @@
         <v>109631</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>102568</v>
+        <v>2549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3145</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>99229</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="M10" s="7">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>201796</v>
+        <v>5694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +3813,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7">
-        <v>2549</v>
+        <v>102568</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="I11" s="7">
-        <v>3145</v>
+        <v>99229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="N11" s="7">
-        <v>5694</v>
+        <v>201796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3870,13 @@
         <v>105117</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>159</v>
@@ -3858,13 +3885,13 @@
         <v>102374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>311</v>
@@ -3873,66 +3900,66 @@
         <v>207490</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>72521</v>
+        <v>584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>657</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>114</v>
-      </c>
-      <c r="I13" s="7">
-        <v>72864</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1241</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>218</v>
-      </c>
-      <c r="N13" s="7">
-        <v>145385</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,49 +3968,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>584</v>
+        <v>72521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>657</v>
+        <v>72864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="N14" s="7">
-        <v>1241</v>
+        <v>145385</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4025,13 @@
         <v>73105</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -4013,13 +4040,13 @@
         <v>73521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>220</v>
@@ -4028,66 +4055,66 @@
         <v>146626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>99900</v>
+        <v>4635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>103286</v>
+        <v>2448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>203187</v>
+        <v>7083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,10 +4123,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="D17" s="7">
-        <v>4635</v>
+        <v>99900</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>229</v>
@@ -4111,10 +4138,10 @@
         <v>231</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>2448</v>
+        <v>103286</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>232</v>
@@ -4126,19 +4153,19 @@
         <v>234</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="N17" s="7">
-        <v>7083</v>
+        <v>203187</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4180,13 @@
         <v>104535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -4168,13 +4195,13 @@
         <v>105734</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -4183,13 +4210,13 @@
         <v>210270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,49 +4227,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>347662</v>
+        <v>8616</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8842</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="7">
-        <v>492</v>
-      </c>
-      <c r="I19" s="7">
-        <v>338340</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>242</v>
       </c>
       <c r="M19" s="7">
-        <v>973</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>686002</v>
+        <v>17458</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,40 +4278,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="D20" s="7">
-        <v>8616</v>
+        <v>347662</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>492</v>
+      </c>
+      <c r="I20" s="7">
+        <v>338340</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8842</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="M20" s="7">
-        <v>24</v>
+        <v>973</v>
       </c>
       <c r="N20" s="7">
-        <v>17458</v>
+        <v>686002</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>251</v>
@@ -4293,7 +4320,7 @@
         <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4335,13 @@
         <v>356278</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -4323,13 +4350,13 @@
         <v>347182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>997</v>
@@ -4338,13 +4365,18 @@
         <v>703460</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DDAF19-AD10-4C05-8329-809AC74E6AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B710D398-D121-4110-A819-121FD386C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7C90851-F159-442E-8BA4-FDA7BD998807}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F6348C2-1698-4C0E-8928-30B4F76AB6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="263">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -85,13 +85,13 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>25,82%</t>
+    <t>26,08%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,67 +109,67 @@
     <t>94,71%</t>
   </si>
   <si>
-    <t>74,18%</t>
+    <t>73,92%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,61%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,43%</t>
@@ -184,7 +184,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,49%</t>
@@ -193,7 +193,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>97,57%</t>
@@ -208,19 +208,19 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,82%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,38%</t>
+    <t>96,94%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,28%</t>
@@ -229,487 +229,511 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2016 (Tasa respuesta: 46,9%)</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>94,59%</t>
+    <t>95,5%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
+    <t>97,37%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>2,32%</t>
@@ -718,7 +742,7 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>6,29%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>3,37%</t>
@@ -727,19 +751,22 @@
     <t>1,58%</t>
   </si>
   <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>93,71%</t>
+    <t>93,31%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -748,55 +775,58 @@
     <t>96,63%</t>
   </si>
   <si>
+    <t>94,04%</t>
+  </si>
+  <si>
     <t>98,42%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB31E4F-4D61-4052-AB73-A692A7C3FC47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB327C81-AD9B-4D03-90C7-8277FCCDD2E1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2113,7 +2143,7 @@
         <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -2122,13 +2152,13 @@
         <v>4893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2137,13 +2167,13 @@
         <v>15982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2188,13 @@
         <v>350641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>515</v>
@@ -2173,13 +2203,13 @@
         <v>346037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>1043</v>
@@ -2188,13 +2218,13 @@
         <v>696679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2280,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFAF009-1C97-4D9D-AFA9-D58734552B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E07B708-7997-4D3E-88E8-EE403A80AEE1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2288,7 +2318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2401,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2416,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2431,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2464,7 +2494,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2479,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2550,13 +2580,13 @@
         <v>1906</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2565,13 +2595,13 @@
         <v>1331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2583,10 +2613,10 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2631,10 @@
         <v>59490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2616,10 +2646,10 @@
         <v>59696</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2634,10 +2664,10 @@
         <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2735,13 @@
         <v>2648</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2720,13 +2750,13 @@
         <v>2603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2735,13 +2765,13 @@
         <v>5251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2786,13 @@
         <v>109441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -2771,13 +2801,13 @@
         <v>108123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>324</v>
@@ -2786,13 +2816,13 @@
         <v>217564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2890,13 @@
         <v>654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2881,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2890,13 +2920,13 @@
         <v>654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,10 +2941,10 @@
         <v>78492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2929,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2941,10 +2971,10 @@
         <v>149608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3015,13 +3045,13 @@
         <v>1369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3030,13 +3060,13 @@
         <v>1714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3045,13 +3075,13 @@
         <v>3083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,10 +3096,10 @@
         <v>94235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3081,10 +3111,10 @@
         <v>88980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3096,13 +3126,13 @@
         <v>183215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3200,13 @@
         <v>6576</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3185,13 +3215,13 @@
         <v>5648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3200,13 +3230,13 @@
         <v>12224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3251,13 @@
         <v>353911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>485</v>
@@ -3236,13 +3266,13 @@
         <v>340805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>993</v>
@@ -3251,13 +3281,13 @@
         <v>694716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3343,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338D619-B807-4783-89E3-143E56CF6B3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152047BD-8F60-439C-B33D-0953E96ACB41}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3351,7 +3381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3473,13 +3503,13 @@
         <v>1099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3488,13 +3518,13 @@
         <v>1099</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,10 +3554,10 @@
         <v>12867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3539,10 +3569,10 @@
         <v>28344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3613,13 +3643,13 @@
         <v>848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3628,13 +3658,13 @@
         <v>1493</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3643,13 +3673,13 @@
         <v>2340</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3694,10 @@
         <v>57196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3679,10 +3709,10 @@
         <v>50095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3694,13 +3724,13 @@
         <v>107291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3801,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3786,10 +3816,10 @@
         <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3798,13 +3828,13 @@
         <v>5694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,10 +3852,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -3834,13 +3864,13 @@
         <v>99229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3849,13 +3879,13 @@
         <v>201796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3953,13 @@
         <v>584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3938,13 +3968,13 @@
         <v>657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3953,13 +3983,13 @@
         <v>1241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,10 +4004,10 @@
         <v>72521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3989,10 +4019,10 @@
         <v>72864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4004,10 +4034,10 @@
         <v>145385</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4078,13 +4108,13 @@
         <v>4635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4093,13 +4123,13 @@
         <v>2448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4108,13 +4138,13 @@
         <v>7083</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4159,13 @@
         <v>99900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4144,13 +4174,13 @@
         <v>103286</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -4159,13 +4189,13 @@
         <v>203187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4263,13 @@
         <v>8616</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4248,13 +4278,13 @@
         <v>8842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4263,13 +4293,13 @@
         <v>17458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4314,13 @@
         <v>347662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>492</v>
@@ -4299,13 +4329,13 @@
         <v>338340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>973</v>
@@ -4314,13 +4344,13 @@
         <v>686002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4406,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B710D398-D121-4110-A819-121FD386C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F18DDEB-B5CB-4233-85B2-D48ED0B2B6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F6348C2-1698-4C0E-8928-30B4F76AB6A6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A02A4C43-2DB4-4458-ACD9-A7AA311ECF68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,766 +67,679 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2016 (Tasa respuesta: 46,9%)</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>96,25%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,37%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB327C81-AD9B-4D03-90C7-8277FCCDD2E1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253E759-2066-4917-A860-4C6C9E36FB81}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1356,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3010</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1371,85 +1284,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>929</v>
+        <v>1263</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>929</v>
+        <v>4273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>13729</v>
+        <v>72663</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I5" s="7">
-        <v>16630</v>
+        <v>80925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>30359</v>
+        <v>153588</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,153 +1371,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1263</v>
+        <v>580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2081</v>
+        <v>2718</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>3344</v>
+        <v>3298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="D8" s="7">
-        <v>67196</v>
+        <v>109481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="I8" s="7">
-        <v>56032</v>
+        <v>108913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="N8" s="7">
-        <v>123229</v>
+        <v>218394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,153 +1526,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>632</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1774</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>2718</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>580</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
       <c r="N10" s="7">
-        <v>3298</v>
+        <v>2406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>108913</v>
+        <v>68576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>109481</v>
+        <v>76095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="N11" s="7">
-        <v>218394</v>
+        <v>144671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,153 +1681,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1774</v>
+        <v>671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>632</v>
+        <v>5335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>2406</v>
+        <v>6005</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
-        <v>76095</v>
+        <v>95318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7">
-        <v>68576</v>
+        <v>84708</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N14" s="7">
-        <v>144671</v>
+        <v>180027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,153 +1836,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>5335</v>
+        <v>4893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>671</v>
+        <v>11090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>6005</v>
+        <v>15982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="D17" s="7">
-        <v>84708</v>
+        <v>346037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>123</v>
+        <v>528</v>
       </c>
       <c r="I17" s="7">
-        <v>95318</v>
+        <v>350641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>246</v>
+        <v>1043</v>
       </c>
       <c r="N17" s="7">
-        <v>180027</v>
+        <v>696679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,217 +1991,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11090</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4893</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15982</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>528</v>
-      </c>
-      <c r="D20" s="7">
-        <v>350641</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>515</v>
-      </c>
-      <c r="I20" s="7">
-        <v>346037</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1043</v>
-      </c>
-      <c r="N20" s="7">
-        <v>696679</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2301,8 +2058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E07B708-7997-4D3E-88E8-EE403A80AEE1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96B952-D46C-4BDB-BC66-08663EE8CE06}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2318,7 +2075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2419,100 +2176,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>12252</v>
+        <v>72587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I5" s="7">
-        <v>12890</v>
+        <v>71742</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="N5" s="7">
-        <v>25143</v>
+        <v>144329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,153 +2278,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>12252</v>
+        <v>73918</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>73648</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="N6" s="7">
-        <v>25143</v>
+        <v>147566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1906</v>
+        <v>2603</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2648</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5251</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1331</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3237</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D8" s="7">
-        <v>59490</v>
+        <v>108123</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>161</v>
+      </c>
+      <c r="I8" s="7">
+        <v>109441</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>82</v>
-      </c>
-      <c r="I8" s="7">
-        <v>59696</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>324</v>
+      </c>
+      <c r="N8" s="7">
+        <v>217564</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7">
-        <v>167</v>
-      </c>
-      <c r="N8" s="7">
-        <v>119186</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,153 +2433,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>61396</v>
+        <v>110726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="I9" s="7">
-        <v>61027</v>
+        <v>112089</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="N9" s="7">
-        <v>122423</v>
+        <v>222815</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2648</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>654</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2603</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>654</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5251</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>109441</v>
+        <v>71116</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>108123</v>
+        <v>78492</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7">
-        <v>217564</v>
+        <v>149608</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,153 +2588,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D12" s="7">
-        <v>112089</v>
+        <v>71116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110726</v>
+        <v>79146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7">
-        <v>222815</v>
+        <v>150262</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>654</v>
+        <v>1714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>654</v>
+        <v>3083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="7">
-        <v>78492</v>
+        <v>88980</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
+        <v>128</v>
+      </c>
+      <c r="I14" s="7">
+        <v>94235</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="7">
+        <v>243</v>
+      </c>
+      <c r="N14" s="7">
+        <v>183215</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7">
-        <v>71116</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="7">
-        <v>231</v>
-      </c>
-      <c r="N14" s="7">
-        <v>149608</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,153 +2743,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" s="7">
-        <v>79146</v>
+        <v>90694</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>71116</v>
+        <v>95604</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="N15" s="7">
-        <v>150262</v>
+        <v>186298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1369</v>
+        <v>5648</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6576</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1714</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12224</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3083</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>485</v>
       </c>
       <c r="D17" s="7">
-        <v>94235</v>
+        <v>340805</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
+        <v>508</v>
+      </c>
+      <c r="I17" s="7">
+        <v>353911</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>115</v>
-      </c>
-      <c r="I17" s="7">
-        <v>88980</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>993</v>
+      </c>
+      <c r="N17" s="7">
+        <v>694716</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="7">
-        <v>243</v>
-      </c>
-      <c r="N17" s="7">
-        <v>183215</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,217 +2898,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="D18" s="7">
-        <v>95604</v>
+        <v>346453</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>117</v>
+        <v>517</v>
       </c>
       <c r="I18" s="7">
-        <v>90694</v>
+        <v>360487</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>247</v>
+        <v>1010</v>
       </c>
       <c r="N18" s="7">
-        <v>186298</v>
+        <v>706940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6576</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5648</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>12224</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>508</v>
-      </c>
-      <c r="D20" s="7">
-        <v>353911</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="7">
-        <v>485</v>
-      </c>
-      <c r="I20" s="7">
-        <v>340805</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" s="7">
-        <v>993</v>
-      </c>
-      <c r="N20" s="7">
-        <v>694716</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>517</v>
-      </c>
-      <c r="D21" s="7">
-        <v>360487</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>493</v>
-      </c>
-      <c r="I21" s="7">
-        <v>346453</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1010</v>
-      </c>
-      <c r="N21" s="7">
-        <v>706940</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3364,8 +2965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152047BD-8F60-439C-B33D-0953E96ACB41}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A36A70-FC73-4026-ABE3-ED15FD8AB38E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3381,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3482,100 +3083,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2592</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1099</v>
+        <v>848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1099</v>
+        <v>3440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>15477</v>
+        <v>62962</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>12867</v>
+        <v>72672</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="N5" s="7">
-        <v>28344</v>
+        <v>135634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,153 +3185,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>65554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I6" s="7">
-        <v>13966</v>
+        <v>73520</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="N6" s="7">
-        <v>29443</v>
+        <v>139074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>848</v>
+        <v>3145</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1493</v>
+        <v>2549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>2340</v>
+        <v>5694</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>57196</v>
+        <v>99229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="I8" s="7">
-        <v>50095</v>
+        <v>102568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="N8" s="7">
-        <v>107291</v>
+        <v>201796</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,153 +3340,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="D9" s="7">
-        <v>58044</v>
+        <v>102374</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="I9" s="7">
-        <v>51588</v>
+        <v>105117</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="N9" s="7">
-        <v>109631</v>
+        <v>207490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2549</v>
+        <v>657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3145</v>
+        <v>584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>5694</v>
+        <v>1241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>102568</v>
+        <v>72864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>99229</v>
+        <v>72521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="N11" s="7">
-        <v>201796</v>
+        <v>145385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,153 +3495,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>105117</v>
+        <v>73521</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="I12" s="7">
-        <v>102374</v>
+        <v>73105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="N12" s="7">
-        <v>207490</v>
+        <v>146626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>584</v>
+        <v>2448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>657</v>
+        <v>4635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>1241</v>
+        <v>7083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7">
-        <v>72521</v>
+        <v>103286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="I14" s="7">
-        <v>72864</v>
+        <v>99900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="N14" s="7">
-        <v>145385</v>
+        <v>203187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,153 +3650,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>73105</v>
+        <v>105734</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>73521</v>
+        <v>104535</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="N15" s="7">
-        <v>146626</v>
+        <v>210270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>4635</v>
+        <v>8842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>2448</v>
+        <v>8616</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>7083</v>
+        <v>17458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>136</v>
+        <v>492</v>
       </c>
       <c r="D17" s="7">
-        <v>99900</v>
+        <v>338340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="I17" s="7">
-        <v>103286</v>
+        <v>347662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
-        <v>272</v>
+        <v>973</v>
       </c>
       <c r="N17" s="7">
-        <v>203187</v>
+        <v>686002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,217 +3805,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>142</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>104535</v>
+        <v>347182</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>493</v>
       </c>
       <c r="I18" s="7">
-        <v>105734</v>
+        <v>356278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>281</v>
+        <v>997</v>
       </c>
       <c r="N18" s="7">
-        <v>210270</v>
+        <v>703460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8616</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8842</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
-      <c r="N19" s="7">
-        <v>17458</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>481</v>
-      </c>
-      <c r="D20" s="7">
-        <v>347662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="7">
-        <v>492</v>
-      </c>
-      <c r="I20" s="7">
-        <v>338340</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M20" s="7">
-        <v>973</v>
-      </c>
-      <c r="N20" s="7">
-        <v>686002</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>493</v>
-      </c>
-      <c r="D21" s="7">
-        <v>356278</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>504</v>
-      </c>
-      <c r="I21" s="7">
-        <v>347182</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>997</v>
-      </c>
-      <c r="N21" s="7">
-        <v>703460</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
